--- a/sem5/riat/2/таблица.xlsx
+++ b/sem5/riat/2/таблица.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\lab\sem5\riat\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A07DC37-3B12-4DCA-B3E2-EBFC9516DE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D574E1-0C53-47DB-963B-04643EAE2BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE28D745-35A2-430E-B4B3-681A8402B590}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Диспетчер</t>
   </si>
   <si>
     <t>Водитель</t>
-  </si>
-  <si>
-    <t>Автобаза</t>
   </si>
   <si>
     <t>Автомобиль</t>
@@ -85,8 +82,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,12 +117,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -431,87 +454,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C615BAC-3AEE-498B-A015-0EDA23BC775D}">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
